--- a/tests/data/timesheet-david.xlsx
+++ b/tests/data/timesheet-david.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orozcoj/workspace-personal/correct-hours/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBC3A9F-E6E2-BF47-9BAE-C4F5B6C5002C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0564E5-A01E-0743-A31B-4DE4F8450869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
   <si>
     <t>Timesheet Details</t>
   </si>
@@ -160,17 +160,18 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
@@ -513,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:N3"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -537,106 +538,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
     </row>
     <row r="5" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
-        <v>44185</v>
+      <c r="A6" s="1">
+        <v>44166</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -660,10 +661,10 @@
         <v>8</v>
       </c>
       <c r="I6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -675,12 +676,12 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
-        <v>44185</v>
+      <c r="A7" s="1">
+        <v>44166</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -698,10 +699,10 @@
         <v>5</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -719,12 +720,12 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
-        <v>44185</v>
+      <c r="A8" s="1">
+        <v>44166</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
@@ -742,28 +743,204 @@
         <v>5</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
+      <c r="E9" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>8</v>
+      </c>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
+      <c r="I9" s="3">
+        <v>8</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>8</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3">
+        <v>8</v>
+      </c>
+      <c r="I10" s="3">
+        <v>8</v>
+      </c>
+      <c r="J10" s="3">
+        <v>8</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3">
+        <v>8</v>
+      </c>
+      <c r="H12" s="3">
+        <v>8</v>
+      </c>
+      <c r="I12" s="3">
+        <v>8</v>
+      </c>
+      <c r="J12" s="3">
+        <v>8</v>
+      </c>
+      <c r="K12" s="3">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
